--- a/Multivariate_table.xlsx
+++ b/Multivariate_table.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamork/Library/CloudStorage/OneDrive-DanmarksTekniskeUniversitet/Observation Modeling and Management of Water Sytstems/Assigment/water_resources_model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/tsupa_dtu_dk/Documents/Thomas School/OMMWS/Assignment/water_resources_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617A6F80-75D6-6E4E-A06C-9BC8D3EEA908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{617A6F80-75D6-6E4E-A06C-9BC8D3EEA908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55785B07-A9AC-4244-8E75-44709673A2E9}"/>
   <bookViews>
-    <workbookView xWindow="14040" yWindow="740" windowWidth="14700" windowHeight="18380" xr2:uid="{A6B5933C-21D5-8742-850B-54C138D4E05A}"/>
+    <workbookView xWindow="14040" yWindow="740" windowWidth="23260" windowHeight="21920" xr2:uid="{A6B5933C-21D5-8742-850B-54C138D4E05A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="124" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
